--- a/src/main/resources/测试记录表.xlsx
+++ b/src/main/resources/测试记录表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\developers\GitProjects\excel2html\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB653E4B-5875-40D3-A23F-9C6BDBEBC922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,8 +107,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,14 +149,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,18 +308,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDED2F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -192,13 +521,13 @@
     </border>
     <border>
       <left style="double">
-        <color theme="7" tint="-0.249977111117893"/>
+        <color theme="7" tint="-0.25"/>
       </left>
       <right style="thick">
         <color theme="0"/>
       </right>
       <top style="double">
-        <color theme="7" tint="-0.249977111117893"/>
+        <color theme="7" tint="-0.25"/>
       </top>
       <bottom style="thick">
         <color theme="0"/>
@@ -213,7 +542,7 @@
         <color theme="0"/>
       </right>
       <top style="double">
-        <color theme="7" tint="-0.249977111117893"/>
+        <color theme="7" tint="-0.25"/>
       </top>
       <bottom style="thick">
         <color theme="0"/>
@@ -222,7 +551,7 @@
     </border>
     <border>
       <left style="double">
-        <color theme="7" tint="-0.249977111117893"/>
+        <color theme="7" tint="-0.25"/>
       </left>
       <right style="thick">
         <color theme="0"/>
@@ -252,7 +581,7 @@
     </border>
     <border>
       <left style="double">
-        <color theme="7" tint="-0.249977111117893"/>
+        <color theme="7" tint="-0.25"/>
       </left>
       <right style="thick">
         <color theme="0"/>
@@ -261,7 +590,7 @@
         <color theme="0"/>
       </top>
       <bottom style="double">
-        <color theme="7" tint="-0.249977111117893"/>
+        <color theme="7" tint="-0.25"/>
       </bottom>
       <diagonal/>
     </border>
@@ -276,7 +605,7 @@
         <color theme="0"/>
       </top>
       <bottom style="double">
-        <color theme="7" tint="-0.249977111117893"/>
+        <color theme="7" tint="-0.25"/>
       </bottom>
       <diagonal/>
     </border>
@@ -285,10 +614,10 @@
         <color theme="0"/>
       </left>
       <right style="double">
-        <color theme="7" tint="-0.249977111117893"/>
+        <color theme="7" tint="-0.25"/>
       </right>
       <top style="double">
-        <color theme="7" tint="-0.249977111117893"/>
+        <color theme="7" tint="-0.25"/>
       </top>
       <bottom style="thick">
         <color theme="0"/>
@@ -300,7 +629,7 @@
         <color theme="0"/>
       </left>
       <right style="double">
-        <color theme="7" tint="-0.249977111117893"/>
+        <color theme="7" tint="-0.25"/>
       </right>
       <top style="thick">
         <color theme="0"/>
@@ -315,19 +644,261 @@
         <color theme="0"/>
       </left>
       <right style="double">
-        <color theme="7" tint="-0.249977111117893"/>
+        <color theme="7" tint="-0.25"/>
       </right>
       <top style="thick">
         <color theme="0"/>
       </top>
       <bottom style="double">
-        <color theme="7" tint="-0.249977111117893"/>
+        <color theme="7" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -335,6 +906,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -353,36 +936,72 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -396,15 +1015,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFD2FAF3"/>
+      <color rgb="00DED2F9"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -662,16 +1278,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -680,406 +1296,407 @@
     <col min="10" max="10" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="32.25" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.25">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" ht="15.75" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="1" t="s">
+    <row r="3" ht="15.75" spans="1:10">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2">
+      <c r="I3" s="5"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" ht="15" spans="1:10">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" ht="15" spans="1:10">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" ht="15" spans="1:10">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2">
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" ht="15" spans="1:10">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" ht="15" spans="1:10">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" ht="15" spans="1:10">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2">
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" ht="15" spans="1:10">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2">
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" ht="15" spans="1:10">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" ht="15" spans="1:10">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" ht="15" spans="1:10">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="2">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" ht="15" spans="1:10">
+      <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="2">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" ht="15" spans="1:10">
+      <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="2">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" ht="15" spans="1:10">
+      <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="2">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" ht="15" spans="1:10">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="2">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" ht="15" spans="1:10">
+      <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" ht="15" spans="1:10">
+      <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" ht="15" spans="1:10">
+      <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="2">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" ht="15" spans="1:10">
+      <c r="A21" s="6">
         <v>18</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="8"/>
-    </row>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" ht="15" spans="1:10">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" ht="15" spans="1:10">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" ht="15" spans="1:10">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" ht="15" spans="1:10">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" ht="15" spans="1:10">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" ht="14.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
@@ -1090,13 +1707,18 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="I4:J26">
+  <conditionalFormatting sqref="I4:I26">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J26">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/测试记录表.xlsx
+++ b/src/main/resources/测试记录表.xlsx
@@ -41,7 +41,19 @@
     <t>工号</t>
   </si>
   <si>
-    <t>测试项目</t>
+    <r>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="思源黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
   </si>
   <si>
     <t>不合格项记录</t>
@@ -114,7 +126,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +148,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="思源黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="思源黑体"/>
@@ -291,6 +310,13 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="思源黑体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -772,137 +798,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,25 +941,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,13 +971,13 @@
     <xf numFmtId="58" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1287,7 +1316,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1320,7 +1349,7 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
@@ -1330,371 +1359,371 @@
       <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:10">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="12"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" ht="15" spans="1:10">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="13"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" ht="15" spans="1:10">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="13"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" ht="15" spans="1:10">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="14"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" ht="15" spans="1:10">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="13"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" ht="15" spans="1:10">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="13"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" ht="15" spans="1:10">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="13"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" ht="15" spans="1:10">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="13"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" ht="15" spans="1:10">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="13"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" ht="15" spans="1:10">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="13"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" ht="15" spans="1:10">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="13"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" ht="15" spans="1:10">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="13"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" ht="15" spans="1:10">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="13"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" ht="15" spans="1:10">
-      <c r="A16" s="6">
+      <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="13"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" ht="15" spans="1:10">
-      <c r="A17" s="6">
+      <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="13"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" ht="15" spans="1:10">
-      <c r="A18" s="6">
+      <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="13"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" ht="15" spans="1:10">
-      <c r="A19" s="6">
+      <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="13"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" ht="15" spans="1:10">
-      <c r="A20" s="6">
+      <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="13"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" ht="15" spans="1:10">
-      <c r="A21" s="6">
+      <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="13"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" ht="15" spans="1:10">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="13"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" ht="15" spans="1:10">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="13"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" ht="15" spans="1:10">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="13"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" ht="15" spans="1:10">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="13"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" ht="15" spans="1:10">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="15"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" ht="14.25"/>
   </sheetData>

--- a/src/main/resources/测试记录表.xlsx
+++ b/src/main/resources/测试记录表.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
-    <t>测试记录表</t>
+    <t xml:space="preserve">测试记  录表      </t>
   </si>
   <si>
     <t>序号</t>
@@ -933,7 +933,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1316,7 +1316,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/src/main/resources/测试记录表.xlsx
+++ b/src/main/resources/测试记录表.xlsx
@@ -933,7 +933,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1316,7 +1316,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/src/main/resources/测试记录表.xlsx
+++ b/src/main/resources/测试记录表.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t xml:space="preserve">测试记  录表      </t>
   </si>
@@ -42,6 +44,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="思源黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>测试</t>
     </r>
     <r>
@@ -115,6 +124,21 @@
   <si>
     <t>FDSFD</t>
   </si>
+  <si>
+    <t>冲冲冲</t>
+  </si>
+  <si>
+    <t>他天天</t>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>阿道夫萨达</t>
+  </si>
 </sst>
 </file>
 
@@ -126,9 +150,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -798,186 +829,189 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1313,10 +1347,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1326,406 +1360,449 @@
   </cols>
   <sheetData>
     <row r="1" ht="32.25" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:10">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" ht="15" spans="1:10">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="14"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" ht="15" spans="1:10">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="14"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" ht="15" spans="1:10">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="15"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" ht="15" spans="1:10">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="14"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" ht="15" spans="1:10">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="14"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" ht="15" spans="1:10">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="14"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" ht="15" spans="1:10">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="14"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" ht="15" spans="1:10">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="14"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" ht="15" spans="1:10">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="14"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" ht="15" spans="1:10">
-      <c r="A13" s="7">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="14"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" ht="15" spans="1:10">
-      <c r="A14" s="7">
+      <c r="A14" s="8">
         <v>11</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="14"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" ht="15" spans="1:10">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>12</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="14"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" ht="15" spans="1:10">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>13</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="14"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" ht="15" spans="1:10">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>14</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="14"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" ht="15" spans="1:10">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>15</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="14"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" ht="15" spans="1:10">
-      <c r="A19" s="7">
+      <c r="A19" s="8">
         <v>16</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="14"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" ht="15" spans="1:10">
-      <c r="A20" s="7">
+      <c r="A20" s="8">
         <v>17</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="14"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" ht="15" spans="1:10">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
         <v>18</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="14"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" ht="15" spans="1:10">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="14"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" ht="15" spans="1:10">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="14"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" ht="15" spans="1:10">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="14"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" ht="15" spans="1:10">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="14"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" ht="15" spans="1:10">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="16"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" ht="14.25"/>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" ht="29" customHeight="1" spans="2:2">
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" ht="18" customHeight="1" spans="2:2">
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
@@ -1746,8 +1823,57 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" ht="61.5" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A49:A50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="49" ht="11" customHeight="1"/>
+    <row r="50" ht="21" customHeight="1" spans="1:1">
+      <c r="A50">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="1" gridLines="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/测试记录表.xlsx
+++ b/src/main/resources/测试记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12255"/>
+    <workbookView windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t xml:space="preserve">测试记  录表      </t>
   </si>
@@ -159,6 +159,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="思源黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="思源黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="48"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -186,19 +199,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="思源黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="思源黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -359,6 +359,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,12 +372,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,8 +583,8 @@
       <right style="thick">
         <color theme="0"/>
       </right>
-      <top style="double">
-        <color theme="7" tint="-0.25"/>
+      <top style="thick">
+        <color theme="0"/>
       </top>
       <bottom style="thick">
         <color theme="0"/>
@@ -598,8 +598,23 @@
       <right style="thick">
         <color theme="0"/>
       </right>
-      <top style="double">
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="double">
         <color theme="7" tint="-0.25"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
       </top>
       <bottom style="thick">
         <color theme="0"/>
@@ -613,8 +628,8 @@
       <right style="thick">
         <color theme="0"/>
       </right>
-      <top style="thick">
-        <color theme="0"/>
+      <top style="double">
+        <color theme="7" tint="-0.25"/>
       </top>
       <bottom style="thick">
         <color theme="0"/>
@@ -628,8 +643,8 @@
       <right style="thick">
         <color theme="0"/>
       </right>
-      <top style="thick">
-        <color theme="0"/>
+      <top style="double">
+        <color theme="7" tint="-0.25"/>
       </top>
       <bottom style="thick">
         <color theme="0"/>
@@ -675,21 +690,6 @@
       </right>
       <top style="double">
         <color theme="7" tint="-0.25"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right style="double">
-        <color theme="7" tint="-0.25"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
       </top>
       <bottom style="thick">
         <color theme="0"/>
@@ -959,59 +959,62 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1349,8 +1352,8 @@
   <sheetPr/>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1360,404 +1363,404 @@
   </cols>
   <sheetData>
     <row r="1" ht="32.25" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" ht="15.75" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:10">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="14"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" ht="15" spans="1:10">
-      <c r="A4" s="8">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="15"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" ht="15" spans="1:10">
-      <c r="A5" s="8">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="15"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" ht="15" spans="1:10">
-      <c r="A6" s="8">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="16"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" ht="15" spans="1:10">
-      <c r="A7" s="8">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="15"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" ht="15" spans="1:10">
-      <c r="A8" s="8">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="15"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" ht="15" spans="1:10">
-      <c r="A9" s="8">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="15"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" ht="15" spans="1:10">
-      <c r="A10" s="8">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="15"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" ht="15" spans="1:10">
-      <c r="A11" s="8">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="15"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" ht="15" spans="1:10">
-      <c r="A12" s="8">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="15"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" ht="15" spans="1:10">
-      <c r="A13" s="8">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="15"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" ht="15" spans="1:10">
-      <c r="A14" s="8">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="15"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" ht="15" spans="1:10">
-      <c r="A15" s="8">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="15"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" ht="15" spans="1:10">
-      <c r="A16" s="8">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="15"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" ht="15" spans="1:10">
-      <c r="A17" s="8">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="15"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" ht="15" spans="1:10">
-      <c r="A18" s="8">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="15"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" ht="15" spans="1:10">
-      <c r="A19" s="8">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="15"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" ht="15" spans="1:10">
-      <c r="A20" s="8">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="15"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" ht="15" spans="1:10">
-      <c r="A21" s="8">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="15"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" ht="15" spans="1:10">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="15"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" ht="15" spans="1:10">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="15"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" ht="15" spans="1:10">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="15"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" ht="15" spans="1:10">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="15"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" ht="15" spans="1:10">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="17"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" ht="14.25"/>
     <row r="39" spans="2:2">
@@ -1842,7 +1845,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="61.5" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1856,14 +1859,40 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A49:A50"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:1">
+      <c r="A2" s="4">
+        <v>12345678</v>
+      </c>
+    </row>
     <row r="49" ht="11" customHeight="1"/>
     <row r="50" ht="21" customHeight="1" spans="1:1">
       <c r="A50">
@@ -1871,6 +1900,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
